--- a/014_In_JSON_Extraction_And_Update_In_Excel_Using_Reframework/014_In_Data/Output/Final_Report.xlsx
+++ b/014_In_JSON_Extraction_And_Update_In_Excel_Using_Reframework/014_In_Data/Output/Final_Report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>MRP_Controller</x:t>
   </x:si>
@@ -39,9 +39,6 @@
   </x:si>
   <x:si>
     <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Failed</x:t>
   </x:si>
   <x:si>
     <x:t>105</x:t>
@@ -438,12 +435,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>3</x:v>
@@ -481,39 +478,24 @@
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -549,40 +531,25 @@
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -617,40 +584,25 @@
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -685,40 +637,25 @@
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
